--- a/customers.xlsx
+++ b/customers.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -473,7 +473,7 @@
         <v>1500</v>
       </c>
       <c r="G2" t="str">
-        <v>Advertisment Video</v>
+        <v>Advertisement Video</v>
       </c>
       <c r="H2">
         <v>1500</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="B6" t="str">
         <v>Upload1</v>
@@ -676,10 +676,10 @@
         <v>Testing</v>
       </c>
       <c r="H6">
-        <v>1555</v>
+        <v>1000</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="J6" t="str">
         <v>India</v>
@@ -691,7 +691,7 @@
         <v>Uttar Pradesh</v>
       </c>
       <c r="M6" t="str">
-        <v>Completed</v>
+        <v>Test</v>
       </c>
       <c r="N6" t="str">
         <v>rathik</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B7" t="str">
         <v>Upload2</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="B8" t="str">
         <v>Upload3</v>
@@ -803,9 +803,364 @@
         <v>Testing</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>111</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Upload1</v>
+      </c>
+      <c r="C9" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Hing</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45345.65636574074</v>
+      </c>
+      <c r="F9">
+        <v>1555</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Testing</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9">
+        <v>555</v>
+      </c>
+      <c r="J9" t="str">
+        <v>India</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Hathras</v>
+      </c>
+      <c r="L9" t="str">
+        <v>Uttar Pradesh</v>
+      </c>
+      <c r="M9" t="str">
+        <v>Test</v>
+      </c>
+      <c r="N9" t="str">
+        <v>rathik</v>
+      </c>
+      <c r="O9" t="str">
+        <v>nsdjksbdj</v>
+      </c>
+      <c r="P9" t="str">
+        <v>Testing</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>112</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Upload2</v>
+      </c>
+      <c r="C10" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Hing</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45345.65636574074</v>
+      </c>
+      <c r="F10">
+        <v>1555</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Testing</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="I10">
+        <v>555</v>
+      </c>
+      <c r="J10" t="str">
+        <v>India</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Hathras</v>
+      </c>
+      <c r="L10" t="str">
+        <v>Uttar Pradesh</v>
+      </c>
+      <c r="M10" t="str">
+        <v>Test</v>
+      </c>
+      <c r="N10" t="str">
+        <v>rathik</v>
+      </c>
+      <c r="O10" t="str">
+        <v>nsdjksbdj</v>
+      </c>
+      <c r="P10" t="str">
+        <v>Testing</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>113</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Upload3</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Hing</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45345.65636574074</v>
+      </c>
+      <c r="F11">
+        <v>1555</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Testing</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+      <c r="I11">
+        <v>555</v>
+      </c>
+      <c r="J11" t="str">
+        <v>India</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Hathras</v>
+      </c>
+      <c r="L11" t="str">
+        <v>Uttar Pradesh</v>
+      </c>
+      <c r="M11" t="str">
+        <v>Test</v>
+      </c>
+      <c r="N11" t="str">
+        <v>rathik</v>
+      </c>
+      <c r="O11" t="str">
+        <v>nsdjksbdj</v>
+      </c>
+      <c r="P11" t="str">
+        <v>Testing</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>1155585</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Upload1</v>
+      </c>
+      <c r="C12" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Hing</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45345.65636574074</v>
+      </c>
+      <c r="F12">
+        <v>1555</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Testing</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+      <c r="I12">
+        <v>555</v>
+      </c>
+      <c r="M12" t="str">
+        <v>Test</v>
+      </c>
+      <c r="N12" t="str">
+        <v>rathik</v>
+      </c>
+      <c r="O12" t="str">
+        <v>nsdjksbdj</v>
+      </c>
+      <c r="P12" t="str">
+        <v>Testing</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2222222</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Upload1</v>
+      </c>
+      <c r="C13" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Hing</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45345.65636574074</v>
+      </c>
+      <c r="F13">
+        <v>1555</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Testing</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="I13">
+        <v>555</v>
+      </c>
+      <c r="M13" t="str">
+        <v>Test</v>
+      </c>
+      <c r="N13" t="str">
+        <v>rathik</v>
+      </c>
+      <c r="O13" t="str">
+        <v>nsdjksbdj</v>
+      </c>
+      <c r="P13" t="str">
+        <v>Testing</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>55555</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Upload1</v>
+      </c>
+      <c r="C14" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Hing</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45345.65636574074</v>
+      </c>
+      <c r="F14">
+        <v>1555</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Testing</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+      <c r="I14">
+        <v>555</v>
+      </c>
+      <c r="M14" t="str">
+        <v>Test</v>
+      </c>
+      <c r="N14" t="str">
+        <v>rathik</v>
+      </c>
+      <c r="O14" t="str">
+        <v>nsdjksbdj</v>
+      </c>
+      <c r="P14" t="str">
+        <v>Testing</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>8888</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Upload1</v>
+      </c>
+      <c r="C15" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Hing</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45345.65636574074</v>
+      </c>
+      <c r="F15">
+        <v>1555</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Testing</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
+      <c r="I15">
+        <v>555</v>
+      </c>
+      <c r="M15" t="str">
+        <v>Test</v>
+      </c>
+      <c r="N15" t="str">
+        <v>rathik</v>
+      </c>
+      <c r="O15" t="str">
+        <v>nsdjksbdj</v>
+      </c>
+      <c r="P15" t="str">
+        <v>Testing</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>8888</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Upload1</v>
+      </c>
+      <c r="C16" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Hing</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45345.65636574074</v>
+      </c>
+      <c r="F16">
+        <v>1555</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Testing</v>
+      </c>
+      <c r="H16">
+        <v>1000</v>
+      </c>
+      <c r="I16">
+        <v>555</v>
+      </c>
+      <c r="M16" t="str">
+        <v>Test</v>
+      </c>
+      <c r="N16" t="str">
+        <v>rathik</v>
+      </c>
+      <c r="O16" t="str">
+        <v>nsdjksbdj</v>
+      </c>
+      <c r="P16" t="str">
+        <v>Testing</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/customers.xlsx
+++ b/customers.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,45 +432,51 @@
         <v>remainingAmount</v>
       </c>
       <c r="J1" t="str">
+        <v>restAmount</v>
+      </c>
+      <c r="K1" t="str">
+        <v>restPaymentDate</v>
+      </c>
+      <c r="L1" t="str">
         <v>custCountry</v>
       </c>
-      <c r="K1" t="str">
+      <c r="M1" t="str">
         <v>custCity</v>
       </c>
-      <c r="L1" t="str">
+      <c r="N1" t="str">
         <v>custState</v>
       </c>
-      <c r="M1" t="str">
+      <c r="O1" t="str">
         <v>projectStatus</v>
       </c>
-      <c r="N1" t="str">
+      <c r="P1" t="str">
         <v>salesPerson</v>
       </c>
-      <c r="O1" t="str">
+      <c r="Q1" t="str">
         <v>youtubeLink</v>
       </c>
-      <c r="P1" t="str">
+      <c r="R1" t="str">
         <v>remark</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B2" t="str">
-        <v>Rathik</v>
+        <v>April1</v>
       </c>
       <c r="C2" t="str">
-        <v>4654564564</v>
+        <v>1234456789</v>
       </c>
       <c r="D2" t="str">
         <v>Testing</v>
       </c>
       <c r="E2" s="1">
-        <v>45355.472337962965</v>
+        <v>45383.55081018519</v>
       </c>
       <c r="F2">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="G2" t="str">
         <v>Advertisement Video</v>
@@ -479,33 +485,301 @@
         <v>1000</v>
       </c>
       <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>500</v>
+      </c>
+      <c r="L2" t="str">
+        <v>IN</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Hathras</v>
+      </c>
+      <c r="N2" t="str">
+        <v>UP</v>
+      </c>
+      <c r="O2" t="str">
+        <v>Scripting</v>
+      </c>
+      <c r="P2" t="str">
+        <v>rathik</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>dbhjdabjhb</v>
+      </c>
+      <c r="R2" t="str">
+        <v>hjdsbsahdbj</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>58</v>
+      </c>
+      <c r="B3" t="str">
+        <v>April2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>1223344556</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Test</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45383.55289351852</v>
+      </c>
+      <c r="F3">
+        <v>3000</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Advertisement Video</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+      <c r="I3">
+        <v>1500</v>
+      </c>
+      <c r="J3">
+        <v>500</v>
+      </c>
+      <c r="L3" t="str">
+        <v>IN</v>
+      </c>
+      <c r="M3" t="str">
+        <v>Hathras</v>
+      </c>
+      <c r="N3" t="str">
+        <v>UP</v>
+      </c>
+      <c r="O3" t="str">
+        <v>Scripting</v>
+      </c>
+      <c r="P3" t="str">
+        <v>rathik</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>djkasdjk</v>
+      </c>
+      <c r="R3" t="str">
+        <v>sajndjksda</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>65</v>
+      </c>
+      <c r="B4" t="str">
+        <v>April4</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1111222233</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Test</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45384.75011574074</v>
+      </c>
+      <c r="F4">
+        <v>2000</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Graphic Designing</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4">
+        <v>500</v>
+      </c>
+      <c r="L4" t="str">
+        <v>IN</v>
+      </c>
+      <c r="M4" t="str">
+        <v>Hathras</v>
+      </c>
+      <c r="N4" t="str">
+        <v>UP</v>
+      </c>
+      <c r="O4" t="str">
+        <v>Script Correction</v>
+      </c>
+      <c r="P4" t="str">
+        <v>rathik</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>sdsadsa</v>
+      </c>
+      <c r="R4" t="str">
+        <v>asdassa</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>67</v>
+      </c>
+      <c r="B5" t="str">
+        <v>April6</v>
+      </c>
+      <c r="C5" t="str">
+        <v>4444444444</v>
+      </c>
+      <c r="D5" t="str">
+        <v>dhsabdhjasbjh</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45384.7556712963</v>
+      </c>
+      <c r="F5">
+        <v>2000</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Advertisement Video</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+      <c r="I5">
+        <v>500</v>
+      </c>
+      <c r="J5">
+        <v>500</v>
+      </c>
+      <c r="L5" t="str">
+        <v>IN</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Mathura</v>
+      </c>
+      <c r="N5" t="str">
+        <v>UP</v>
+      </c>
+      <c r="O5" t="str">
+        <v>Script Correction</v>
+      </c>
+      <c r="P5" t="str">
+        <v>rathik</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>sasdasfds</v>
+      </c>
+      <c r="R5" t="str">
+        <v>sasdsaf</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>66</v>
+      </c>
+      <c r="B6" t="str">
+        <v>April55</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="D6" t="str">
+        <v>sadsffd</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45384.75914351852</v>
+      </c>
+      <c r="F6">
+        <v>2000</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Graphic Designing</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="str">
+        <v>IN</v>
+      </c>
+      <c r="M6" t="str">
+        <v>Gwalior</v>
+      </c>
+      <c r="N6" t="str">
+        <v>MP</v>
+      </c>
+      <c r="O6" t="str">
+        <v>Script Correction</v>
+      </c>
+      <c r="P6" t="str">
+        <v>rathik</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>sdsd</v>
+      </c>
+      <c r="R6" t="str">
+        <v>saads</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>67</v>
+      </c>
+      <c r="B7" t="str">
+        <v>April66</v>
+      </c>
+      <c r="C7" t="str">
+        <v>1234561230</v>
+      </c>
+      <c r="D7" t="str">
+        <v>dasdasdsa</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45384.76400462963</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Graphic Designing</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
         <v>400</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="str">
         <v>IN</v>
       </c>
-      <c r="K2" t="str">
-        <v>Hathras</v>
-      </c>
-      <c r="L2" t="str">
+      <c r="M7" t="str">
+        <v>Aliganj</v>
+      </c>
+      <c r="N7" t="str">
         <v>UP</v>
       </c>
-      <c r="M2" t="str">
-        <v>Closing</v>
-      </c>
-      <c r="N2" t="str">
+      <c r="O7" t="str">
+        <v>Script Correction</v>
+      </c>
+      <c r="P7" t="str">
         <v>rathik</v>
       </c>
-      <c r="O2" t="str">
-        <v>njdsnfjksn</v>
-      </c>
-      <c r="P2" t="str">
-        <v>sjdnfjkdsnf</v>
+      <c r="Q7" t="str">
+        <v>dasdas</v>
+      </c>
+      <c r="R7" t="str">
+        <v>asdsa</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R7"/>
   </ignoredErrors>
 </worksheet>
 </file>